--- a/src/main/resources/网站数据.xlsx
+++ b/src/main/resources/网站数据.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>日期</t>
   </si>
@@ -36,6 +36,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -52,6 +57,15 @@
   </si>
   <si>
     <t>3号</t>
+  </si>
+  <si>
+    <t>4号</t>
+  </si>
+  <si>
+    <t>5号</t>
+  </si>
+  <si>
+    <t>6号</t>
   </si>
 </sst>
 </file>
@@ -1015,13 +1029,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.8" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.8" outlineLevelRow="6" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -1053,6 +1067,30 @@
       </c>
       <c r="B4">
         <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
